--- a/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\mfeFlanker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfeFlanker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACFCCF-47C4-4BDA-B08B-800DC9D4AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE55E6A-0E62-D14C-BD77-69D8860A2D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1440" windowWidth="18048" windowHeight="10920" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>whichSurpriseBlock</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>bottomQ_2</t>
+  </si>
+  <si>
+    <t>fTick</t>
+  </si>
+  <si>
+    <t>fLabel</t>
+  </si>
+  <si>
+    <t>["Definitely new", "Probably new", "Maybe new", "Maybe old", "Probably old", "Definitely old"]  </t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6]</t>
   </si>
 </sst>
 </file>
@@ -431,20 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.296875" customWidth="1"/>
-    <col min="5" max="5" width="255.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="96.5" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,13 +469,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -472,13 +492,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -489,9 +515,15 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfeFlanker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\mfeFlanker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE55E6A-0E62-D14C-BD77-69D8860A2D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8707C-8BE1-4A1A-A321-12BC0E14879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="1536" yWindow="1440" windowWidth="18048" windowHeight="10920" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>a_halfV_surpriseTable1.csv</t>
-  </si>
-  <si>
-    <t>a_halfV_surpriseTable2.csv</t>
-  </si>
-  <si>
     <t>Old or New?</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>half_surp_table1.csv</t>
+  </si>
+  <si>
+    <t>half_surp_table2.csv</t>
   </si>
 </sst>
 </file>
@@ -446,33 +446,33 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.296875" customWidth="1"/>
     <col min="5" max="5" width="96.5" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.296875" customWidth="1"/>
+    <col min="7" max="7" width="255.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -481,21 +481,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -504,21 +504,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>

--- a/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfeFlanker/surpriseBlock_select_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\mfeFlanker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfeFlanker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8707C-8BE1-4A1A-A321-12BC0E14879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D96C5F-D194-E94D-8730-AFB9DE690C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1440" windowWidth="18048" windowHeight="10920" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>whichSurpriseBlock</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>bottomQ_2</t>
-  </si>
-  <si>
-    <t>fTick</t>
-  </si>
-  <si>
-    <t>fLabel</t>
-  </si>
-  <si>
-    <t>["Definitely new", "Probably new", "Maybe new", "Maybe old", "Probably old", "Definitely old"]  </t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6]</t>
   </si>
   <si>
     <t>half_surp_table1.csv</t>
@@ -443,22 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.296875" customWidth="1"/>
-    <col min="5" max="5" width="96.5" customWidth="1"/>
-    <col min="6" max="6" width="28.296875" customWidth="1"/>
-    <col min="7" max="7" width="255.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,21 +455,15 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -492,21 +472,15 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -515,15 +489,9 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
